--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H2">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I2">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J2">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9727856666666664</v>
+        <v>0.600843</v>
       </c>
       <c r="N2">
-        <v>2.918356999999999</v>
+        <v>1.802529</v>
       </c>
       <c r="O2">
-        <v>0.1129009604634423</v>
+        <v>0.1216566842860732</v>
       </c>
       <c r="P2">
-        <v>0.1474950440045494</v>
+        <v>0.148762828988552</v>
       </c>
       <c r="Q2">
-        <v>3.420612400675888</v>
+        <v>3.635823364691</v>
       </c>
       <c r="R2">
-        <v>30.78551160608299</v>
+        <v>32.722410282219</v>
       </c>
       <c r="S2">
-        <v>0.005056084316234647</v>
+        <v>0.009255685845513728</v>
       </c>
       <c r="T2">
-        <v>0.006768370283453952</v>
+        <v>0.01156632328928052</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H3">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I3">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J3">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.431815</v>
       </c>
       <c r="O3">
-        <v>0.1714513235002746</v>
+        <v>0.2991130341144489</v>
       </c>
       <c r="P3">
-        <v>0.223985875766749</v>
+        <v>0.3657579639239645</v>
       </c>
       <c r="Q3">
-        <v>5.194539717553889</v>
+        <v>8.939271725996113</v>
       </c>
       <c r="R3">
-        <v>46.750857457985</v>
+        <v>80.45344553396501</v>
       </c>
       <c r="S3">
-        <v>0.007678166281216952</v>
+        <v>0.022756631025318</v>
       </c>
       <c r="T3">
-        <v>0.01027844261266373</v>
+        <v>0.02843771448242039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H4">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I4">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J4">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06161733333333334</v>
+        <v>0.111967</v>
       </c>
       <c r="N4">
-        <v>0.184852</v>
+        <v>0.335901</v>
       </c>
       <c r="O4">
-        <v>0.007151273248471058</v>
+        <v>0.02267070427625646</v>
       </c>
       <c r="P4">
-        <v>0.009342501234197522</v>
+        <v>0.02772193014375004</v>
       </c>
       <c r="Q4">
-        <v>0.2166654194431111</v>
+        <v>0.6775351209456667</v>
       </c>
       <c r="R4">
-        <v>1.949988774988</v>
+        <v>6.097816088511</v>
       </c>
       <c r="S4">
-        <v>0.0003202580417764541</v>
+        <v>0.001724795623922781</v>
       </c>
       <c r="T4">
-        <v>0.0004287161521489764</v>
+        <v>0.002155382553730129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H5">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I5">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J5">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.062687499999999</v>
+        <v>2.6997255</v>
       </c>
       <c r="N5">
-        <v>12.125375</v>
+        <v>5.399451</v>
       </c>
       <c r="O5">
-        <v>0.7036321208197347</v>
+        <v>0.5466314042313235</v>
       </c>
       <c r="P5">
-        <v>0.6128217758131248</v>
+        <v>0.4456170223863617</v>
       </c>
       <c r="Q5">
-        <v>21.31826645327083</v>
+        <v>16.3365888445935</v>
       </c>
       <c r="R5">
-        <v>127.909598719625</v>
+        <v>98.01953306756101</v>
       </c>
       <c r="S5">
-        <v>0.0315110103215424</v>
+        <v>0.04158792079981372</v>
       </c>
       <c r="T5">
-        <v>0.02812165469328648</v>
+        <v>0.03464676343660988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.516306333333333</v>
+        <v>6.051203666666667</v>
       </c>
       <c r="H6">
-        <v>10.548919</v>
+        <v>18.153611</v>
       </c>
       <c r="I6">
-        <v>0.04478335964087587</v>
+        <v>0.07608037240065801</v>
       </c>
       <c r="J6">
-        <v>0.04588879802120798</v>
+        <v>0.07775008964215516</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04191233333333333</v>
+        <v>0.04903366666666667</v>
       </c>
       <c r="N6">
-        <v>0.125737</v>
+        <v>0.147101</v>
       </c>
       <c r="O6">
-        <v>0.004864321968077193</v>
+        <v>0.009928173091897913</v>
       </c>
       <c r="P6">
-        <v>0.006354803181379123</v>
+        <v>0.01214025455737189</v>
       </c>
       <c r="Q6">
-        <v>0.1473766031447777</v>
+        <v>0.2967127035234445</v>
       </c>
       <c r="R6">
-        <v>1.326389428303</v>
+        <v>2.670414331711001</v>
       </c>
       <c r="S6">
-        <v>0.0002178406801054141</v>
+        <v>0.0007553391060897856</v>
       </c>
       <c r="T6">
-        <v>0.0002916142796548364</v>
+        <v>0.0009439058801142471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>52.872045</v>
       </c>
       <c r="I7">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J7">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9727856666666664</v>
+        <v>0.600843</v>
       </c>
       <c r="N7">
-        <v>2.918356999999999</v>
+        <v>1.802529</v>
       </c>
       <c r="O7">
-        <v>0.1129009604634423</v>
+        <v>0.1216566842860732</v>
       </c>
       <c r="P7">
-        <v>0.1474950440045494</v>
+        <v>0.148762828988552</v>
       </c>
       <c r="Q7">
-        <v>17.14438918111833</v>
+        <v>10.589266044645</v>
       </c>
       <c r="R7">
-        <v>154.299502630065</v>
+        <v>95.30339440180501</v>
       </c>
       <c r="S7">
-        <v>0.02534150821442012</v>
+        <v>0.02695700808670324</v>
       </c>
       <c r="T7">
-        <v>0.03392362555854682</v>
+        <v>0.03368669546986479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>52.872045</v>
       </c>
       <c r="I8">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J8">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.431815</v>
       </c>
       <c r="O8">
-        <v>0.1714513235002746</v>
+        <v>0.2991130341144489</v>
       </c>
       <c r="P8">
-        <v>0.223985875766749</v>
+        <v>0.3657579639239645</v>
       </c>
       <c r="Q8">
         <v>26.03545801240833</v>
@@ -948,10 +948,10 @@
         <v>234.319122111675</v>
       </c>
       <c r="S8">
-        <v>0.03848359752672149</v>
+        <v>0.06627825282909329</v>
       </c>
       <c r="T8">
-        <v>0.0515163952198964</v>
+        <v>0.0828242997942218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>52.872045</v>
       </c>
       <c r="I9">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J9">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06161733333333334</v>
+        <v>0.111967</v>
       </c>
       <c r="N9">
-        <v>0.184852</v>
+        <v>0.335901</v>
       </c>
       <c r="O9">
-        <v>0.007151273248471058</v>
+        <v>0.02267070427625646</v>
       </c>
       <c r="P9">
-        <v>0.009342501234197522</v>
+        <v>0.02772193014375004</v>
       </c>
       <c r="Q9">
-        <v>1.085944806926667</v>
+        <v>1.973308087505</v>
       </c>
       <c r="R9">
-        <v>9.77350326234</v>
+        <v>17.759772787545</v>
       </c>
       <c r="S9">
-        <v>0.001605159504629485</v>
+        <v>0.005023434282239955</v>
       </c>
       <c r="T9">
-        <v>0.002148760426414074</v>
+        <v>0.006277510483894046</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>52.872045</v>
       </c>
       <c r="I10">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J10">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.062687499999999</v>
+        <v>2.6997255</v>
       </c>
       <c r="N10">
-        <v>12.125375</v>
+        <v>5.399451</v>
       </c>
       <c r="O10">
-        <v>0.7036321208197347</v>
+        <v>0.5466314042313235</v>
       </c>
       <c r="P10">
-        <v>0.6128217758131248</v>
+        <v>0.4456170223863617</v>
       </c>
       <c r="Q10">
-        <v>106.8488954403125</v>
+        <v>47.5800027078825</v>
       </c>
       <c r="R10">
-        <v>641.0933726418749</v>
+        <v>285.480016247295</v>
       </c>
       <c r="S10">
-        <v>0.157935761542586</v>
+        <v>0.1211240243048166</v>
       </c>
       <c r="T10">
-        <v>0.1409480338618492</v>
+        <v>0.1009080361766479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>52.872045</v>
       </c>
       <c r="I11">
-        <v>0.2244578620978674</v>
+        <v>0.2215826302097334</v>
       </c>
       <c r="J11">
-        <v>0.2299984096923315</v>
+        <v>0.2264456497560767</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.04191233333333333</v>
+        <v>0.04903366666666667</v>
       </c>
       <c r="N11">
-        <v>0.125737</v>
+        <v>0.147101</v>
       </c>
       <c r="O11">
-        <v>0.004864321968077193</v>
+        <v>0.009928173091897913</v>
       </c>
       <c r="P11">
-        <v>0.006354803181379123</v>
+        <v>0.01214025455737189</v>
       </c>
       <c r="Q11">
-        <v>0.7386635913516666</v>
+        <v>0.8641700768383334</v>
       </c>
       <c r="R11">
-        <v>6.647972322165</v>
+        <v>7.777530691545</v>
       </c>
       <c r="S11">
-        <v>0.001091835309510297</v>
+        <v>0.00219991070688024</v>
       </c>
       <c r="T11">
-        <v>0.001461594625624967</v>
+        <v>0.002749107831448249</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H12">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I12">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J12">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9727856666666664</v>
+        <v>0.600843</v>
       </c>
       <c r="N12">
-        <v>2.918356999999999</v>
+        <v>1.802529</v>
       </c>
       <c r="O12">
-        <v>0.1129009604634423</v>
+        <v>0.1216566842860732</v>
       </c>
       <c r="P12">
-        <v>0.1474950440045494</v>
+        <v>0.148762828988552</v>
       </c>
       <c r="Q12">
-        <v>26.0227964331761</v>
+        <v>20.205392145977</v>
       </c>
       <c r="R12">
-        <v>234.2051678985849</v>
+        <v>181.848529313793</v>
       </c>
       <c r="S12">
-        <v>0.03846488216096938</v>
+        <v>0.05143670176740489</v>
       </c>
       <c r="T12">
-        <v>0.05149134173631548</v>
+        <v>0.06427762691021741</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H13">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I13">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J13">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.431815</v>
       </c>
       <c r="O13">
-        <v>0.1714513235002746</v>
+        <v>0.2991130341144489</v>
       </c>
       <c r="P13">
-        <v>0.223985875766749</v>
+        <v>0.3657579639239645</v>
       </c>
       <c r="Q13">
-        <v>39.51820136278611</v>
+        <v>49.67829088653944</v>
       </c>
       <c r="R13">
-        <v>355.663812265075</v>
+        <v>447.104617978855</v>
       </c>
       <c r="S13">
-        <v>0.05841274447718924</v>
+        <v>0.1264656193843824</v>
       </c>
       <c r="T13">
-        <v>0.07819471732797907</v>
+        <v>0.1580371528586254</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H14">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I14">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J14">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.06161733333333334</v>
+        <v>0.111967</v>
       </c>
       <c r="N14">
-        <v>0.184852</v>
+        <v>0.335901</v>
       </c>
       <c r="O14">
-        <v>0.007151273248471058</v>
+        <v>0.02267070427625646</v>
       </c>
       <c r="P14">
-        <v>0.009342501234197522</v>
+        <v>0.02772193014375004</v>
       </c>
       <c r="Q14">
-        <v>1.648313063228889</v>
+        <v>3.765271697279666</v>
       </c>
       <c r="R14">
-        <v>14.83481756906</v>
+        <v>33.887445275517</v>
       </c>
       <c r="S14">
-        <v>0.002436408704356428</v>
+        <v>0.009585221408572661</v>
       </c>
       <c r="T14">
-        <v>0.003261519239298479</v>
+        <v>0.01197812582031631</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H15">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I15">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J15">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.062687499999999</v>
+        <v>2.6997255</v>
       </c>
       <c r="N15">
-        <v>12.125375</v>
+        <v>5.399451</v>
       </c>
       <c r="O15">
-        <v>0.7036321208197347</v>
+        <v>0.5466314042313235</v>
       </c>
       <c r="P15">
-        <v>0.6128217758131248</v>
+        <v>0.4456170223863617</v>
       </c>
       <c r="Q15">
-        <v>162.1817508794791</v>
+        <v>90.78746430264449</v>
       </c>
       <c r="R15">
-        <v>973.0905052768749</v>
+        <v>544.724785815867</v>
       </c>
       <c r="S15">
-        <v>0.2397245027934712</v>
+        <v>0.2311169064087591</v>
       </c>
       <c r="T15">
-        <v>0.2139394967120117</v>
+        <v>0.1925427534857971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.75080166666666</v>
+        <v>33.62840566666667</v>
       </c>
       <c r="H16">
-        <v>80.252405</v>
+        <v>100.885217</v>
       </c>
       <c r="I16">
-        <v>0.3406957921622324</v>
+        <v>0.4228021014155913</v>
       </c>
       <c r="J16">
-        <v>0.3491055722165637</v>
+        <v>0.432081235260482</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04191233333333333</v>
+        <v>0.04903366666666667</v>
       </c>
       <c r="N16">
-        <v>0.125737</v>
+        <v>0.147101</v>
       </c>
       <c r="O16">
-        <v>0.004864321968077193</v>
+        <v>0.009928173091897913</v>
       </c>
       <c r="P16">
-        <v>0.006354803181379123</v>
+        <v>0.01214025455737189</v>
       </c>
       <c r="Q16">
-        <v>1.121188516387222</v>
+        <v>1.648924033990778</v>
       </c>
       <c r="R16">
-        <v>10.090696647485</v>
+        <v>14.840316305917</v>
       </c>
       <c r="S16">
-        <v>0.001657254026246209</v>
+        <v>0.004197652446472166</v>
       </c>
       <c r="T16">
-        <v>0.002218497200958998</v>
+        <v>0.005245576185525943</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H17">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I17">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J17">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9727856666666664</v>
+        <v>0.600843</v>
       </c>
       <c r="N17">
-        <v>2.918356999999999</v>
+        <v>1.802529</v>
       </c>
       <c r="O17">
-        <v>0.1129009604634423</v>
+        <v>0.1216566842860732</v>
       </c>
       <c r="P17">
-        <v>0.1474950440045494</v>
+        <v>0.148762828988552</v>
       </c>
       <c r="Q17">
-        <v>5.519964772683832</v>
+        <v>3.078884763825</v>
       </c>
       <c r="R17">
-        <v>33.119788636103</v>
+        <v>18.47330858295</v>
       </c>
       <c r="S17">
-        <v>0.008159184392777087</v>
+        <v>0.007837891797838985</v>
       </c>
       <c r="T17">
-        <v>0.007281574399906405</v>
+        <v>0.006529722518916806</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H18">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I18">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J18">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.431815</v>
       </c>
       <c r="O18">
-        <v>0.1714513235002746</v>
+        <v>0.2991130341144489</v>
       </c>
       <c r="P18">
-        <v>0.223985875766749</v>
+        <v>0.3657579639239645</v>
       </c>
       <c r="Q18">
-        <v>8.382614833980835</v>
+        <v>7.569946269708334</v>
       </c>
       <c r="R18">
-        <v>50.295689003885</v>
+        <v>45.41967761825</v>
       </c>
       <c r="S18">
-        <v>0.01239053199443228</v>
+        <v>0.01927075039460657</v>
       </c>
       <c r="T18">
-        <v>0.01105779404271692</v>
+        <v>0.01605440034816266</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H19">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I19">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J19">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.06161733333333334</v>
+        <v>0.111967</v>
       </c>
       <c r="N19">
-        <v>0.184852</v>
+        <v>0.335901</v>
       </c>
       <c r="O19">
-        <v>0.007151273248471058</v>
+        <v>0.02267070427625646</v>
       </c>
       <c r="P19">
-        <v>0.009342501234197522</v>
+        <v>0.02772193014375004</v>
       </c>
       <c r="Q19">
-        <v>0.3496407492846667</v>
+        <v>0.5737496989249999</v>
       </c>
       <c r="R19">
-        <v>2.097844495708</v>
+        <v>3.44249819355</v>
       </c>
       <c r="S19">
-        <v>0.0005168118750974026</v>
+        <v>0.001460589922706327</v>
       </c>
       <c r="T19">
-        <v>0.0004612230755084107</v>
+        <v>0.001216812780169791</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H20">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I20">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J20">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.062687499999999</v>
+        <v>2.6997255</v>
       </c>
       <c r="N20">
-        <v>12.125375</v>
+        <v>5.399451</v>
       </c>
       <c r="O20">
-        <v>0.7036321208197347</v>
+        <v>0.5466314042313235</v>
       </c>
       <c r="P20">
-        <v>0.6128217758131248</v>
+        <v>0.4456170223863617</v>
       </c>
       <c r="Q20">
-        <v>34.40205029178124</v>
+        <v>13.8341358865125</v>
       </c>
       <c r="R20">
-        <v>137.608201167125</v>
+        <v>55.33654354605</v>
       </c>
       <c r="S20">
-        <v>0.05085044622191672</v>
+        <v>0.03521744674210527</v>
       </c>
       <c r="T20">
-        <v>0.03025394774843006</v>
+        <v>0.01955969462044043</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.6743895</v>
+        <v>5.124275</v>
       </c>
       <c r="H21">
-        <v>11.348779</v>
+        <v>10.24855</v>
       </c>
       <c r="I21">
-        <v>0.07226851179374204</v>
+        <v>0.06442631445887793</v>
       </c>
       <c r="J21">
-        <v>0.04936826487323741</v>
+        <v>0.04389350863594627</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.04191233333333333</v>
+        <v>0.04903366666666667</v>
       </c>
       <c r="N21">
-        <v>0.125737</v>
+        <v>0.147101</v>
       </c>
       <c r="O21">
-        <v>0.004864321968077193</v>
+        <v>0.009928173091897913</v>
       </c>
       <c r="P21">
-        <v>0.006354803181379123</v>
+        <v>0.01214025455737189</v>
       </c>
       <c r="Q21">
-        <v>0.2378269041871666</v>
+        <v>0.2512619922583333</v>
       </c>
       <c r="R21">
-        <v>1.426961425123</v>
+        <v>1.50757195355</v>
       </c>
       <c r="S21">
-        <v>0.0003515373095185451</v>
+        <v>0.0006396356016207854</v>
       </c>
       <c r="T21">
-        <v>0.0003137256066756163</v>
+        <v>0.000532878368256589</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H22">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I22">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J22">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9727856666666664</v>
+        <v>0.600843</v>
       </c>
       <c r="N22">
-        <v>2.918356999999999</v>
+        <v>1.802529</v>
       </c>
       <c r="O22">
-        <v>0.1129009604634423</v>
+        <v>0.1216566842860732</v>
       </c>
       <c r="P22">
-        <v>0.1474950440045494</v>
+        <v>0.148762828988552</v>
       </c>
       <c r="Q22">
-        <v>24.27356340373177</v>
+        <v>10.279876161746</v>
       </c>
       <c r="R22">
-        <v>218.462070633586</v>
+        <v>92.518885455714</v>
       </c>
       <c r="S22">
-        <v>0.03587930137904111</v>
+        <v>0.02616939678861236</v>
       </c>
       <c r="T22">
-        <v>0.04803013202632678</v>
+        <v>0.03270246080027252</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H23">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I23">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J23">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.431815</v>
       </c>
       <c r="O23">
-        <v>0.1714513235002746</v>
+        <v>0.2991130341144489</v>
       </c>
       <c r="P23">
-        <v>0.223985875766749</v>
+        <v>0.3657579639239645</v>
       </c>
       <c r="Q23">
-        <v>36.86181724720778</v>
+        <v>25.27477192975445</v>
       </c>
       <c r="R23">
-        <v>331.75635522487</v>
+        <v>227.47294736779</v>
       </c>
       <c r="S23">
-        <v>0.05448628322071465</v>
+        <v>0.06434178048104863</v>
       </c>
       <c r="T23">
-        <v>0.07293852656349291</v>
+        <v>0.08040439644053426</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H24">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I24">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J24">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.06161733333333334</v>
+        <v>0.111967</v>
       </c>
       <c r="N24">
-        <v>0.184852</v>
+        <v>0.335901</v>
       </c>
       <c r="O24">
-        <v>0.007151273248471058</v>
+        <v>0.02267070427625646</v>
       </c>
       <c r="P24">
-        <v>0.009342501234197522</v>
+        <v>0.02772193014375004</v>
       </c>
       <c r="Q24">
-        <v>1.537514684566222</v>
+        <v>1.915653330740667</v>
       </c>
       <c r="R24">
-        <v>13.837632161096</v>
+        <v>17.240879976666</v>
       </c>
       <c r="S24">
-        <v>0.002272635122611288</v>
+        <v>0.004876663038814733</v>
       </c>
       <c r="T24">
-        <v>0.003042282340827582</v>
+        <v>0.006094098505639764</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H25">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I25">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J25">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.062687499999999</v>
+        <v>2.6997255</v>
       </c>
       <c r="N25">
-        <v>12.125375</v>
+        <v>5.399451</v>
       </c>
       <c r="O25">
-        <v>0.7036321208197347</v>
+        <v>0.5466314042313235</v>
       </c>
       <c r="P25">
-        <v>0.6128217758131248</v>
+        <v>0.4456170223863617</v>
       </c>
       <c r="Q25">
-        <v>151.2800141602917</v>
+        <v>46.18984295516101</v>
       </c>
       <c r="R25">
-        <v>907.6800849617499</v>
+        <v>277.139057730966</v>
       </c>
       <c r="S25">
-        <v>0.2236103999402184</v>
+        <v>0.1175851059758288</v>
       </c>
       <c r="T25">
-        <v>0.1995586427975474</v>
+        <v>0.09795977466686653</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.95263266666667</v>
+        <v>17.10908866666667</v>
       </c>
       <c r="H26">
-        <v>74.85789800000001</v>
+        <v>51.327266</v>
       </c>
       <c r="I26">
-        <v>0.3177944743052822</v>
+        <v>0.2151085815151395</v>
       </c>
       <c r="J26">
-        <v>0.3256389551966594</v>
+        <v>0.2198295167053399</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.04191233333333333</v>
+        <v>0.04903366666666667</v>
       </c>
       <c r="N26">
-        <v>0.125737</v>
+        <v>0.147101</v>
       </c>
       <c r="O26">
-        <v>0.004864321968077193</v>
+        <v>0.009928173091897913</v>
       </c>
       <c r="P26">
-        <v>0.006354803181379123</v>
+        <v>0.01214025455737189</v>
       </c>
       <c r="Q26">
-        <v>1.045823057869556</v>
+        <v>0.8389213506517779</v>
       </c>
       <c r="R26">
-        <v>9.412407520825999</v>
+        <v>7.550292155866001</v>
       </c>
       <c r="S26">
-        <v>0.001545854642696727</v>
+        <v>0.002135635230834937</v>
       </c>
       <c r="T26">
-        <v>0.002069371468464705</v>
+        <v>0.002668786292026863</v>
       </c>
     </row>
   </sheetData>
